--- a/model_exports/labels/2.0_False_False_1_2.xlsx
+++ b/model_exports/labels/2.0_False_False_1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C734"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,46 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-494301276121731072</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,20 +596,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,46 +635,46 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,20 +687,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,20 +726,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,59 +791,59 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,33 +856,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,24 +895,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,46 +947,46 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,20 +1038,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,20 +1103,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,46 +1129,46 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,24 +1181,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,20 +1207,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-968259732858376192</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,46 +1233,46 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,20 +1285,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1337,20 +1337,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,33 +1376,33 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,37 +1428,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,20 +1493,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-745031440031694848</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,33 +1532,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,20 +1571,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,37 +1623,37 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,20 +1662,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,20 +1701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,20 +1740,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,72 +1805,72 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,24 +1896,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,24 +1922,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,33 +1961,33 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,50 +2013,50 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,20 +2065,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,50 +2104,50 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,20 +2182,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,59 +2208,59 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,20 +2299,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,33 +2351,33 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,20 +2390,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,50 +2429,50 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,20 +2481,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,33 +2507,33 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,59 +2559,59 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,46 +2624,46 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,59 +2689,59 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,20 +2767,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-888405582352437248</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,20 +2793,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,11 +2819,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2858,85 +2858,85 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,24 +2949,24 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-635524506925314049</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,24 +3027,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,24 +3066,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,24 +3092,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,24 +3131,24 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,37 +3170,37 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,20 +3248,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,37 +3300,37 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,24 +3352,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,50 +3430,50 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,11 +3482,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-647384012202356736</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3495,11 +3495,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-648159002224914436</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-648232794137718784</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,11 +3521,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-648426685910618112</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3534,11 +3534,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-651743798721122304</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,37 +3560,37 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,11 +3599,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3612,24 +3612,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,37 +3638,37 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,33 +3677,33 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,24 +3716,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3768,33 +3768,33 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,20 +3872,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,20 +3898,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,20 +3937,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,20 +3963,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,11 +4002,11 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -4015,37 +4015,37 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,11 +4067,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,11 +4080,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -4093,24 +4093,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,20 +4145,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,20 +4171,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,24 +4210,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,24 +4236,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,33 +4262,33 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,24 +4301,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,46 +4340,46 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,33 +4431,33 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,50 +4470,50 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -4522,20 +4522,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,20 +4574,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,20 +4626,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,37 +4652,37 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-848401927432019970</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,7 +4691,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,11 +4704,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,33 +4717,33 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,20 +4782,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,33 +4873,33 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,11 +4951,11 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4964,20 +4964,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,20 +5003,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,7 +5029,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,24 +5042,24 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -5068,24 +5068,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,11 +5094,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,20 +5120,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,20 +5146,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,11 +5224,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5263,7 +5263,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,11 +5276,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -5289,20 +5289,20 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,24 +5328,24 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -5354,11 +5354,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -5367,20 +5367,20 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,20 +5393,20 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,76 +5419,76 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,24 +5497,24 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5523,20 +5523,20 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,24 +5549,24 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -5601,33 +5601,33 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,11 +5640,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -5653,20 +5653,20 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-644488507239628800</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-530728667891380225</t>
+          <t>t-644488513442983937</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,72 +5692,72 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,20 +5770,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-737049601983840256</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,50 +5796,50 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-737149037674147840</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-737191991822409729</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-737354227509518336</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-737535367486676992</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-737536409473421313</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-737576761286787074</t>
+          <t>t-737049601983840256</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-737578269373960195</t>
+          <t>t-737149037674147840</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,11 +5887,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-737714265268834304</t>
+          <t>t-737191991822409729</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5900,20 +5900,20 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-737924468329328640</t>
+          <t>t-737354227509518336</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-737947084494622720</t>
+          <t>t-737535367486676992</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,20 +5926,20 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-738026122630332416</t>
+          <t>t-737536409473421313</t>
         </is>
       </c>
       <c r="B423" t="n">
         <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-738039322344075265</t>
+          <t>t-737576761286787074</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,11 +5952,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-738045153693335552</t>
+          <t>t-737578269373960195</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5965,11 +5965,11 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-738399731303514112</t>
+          <t>t-737714265268834304</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-738417134443859970</t>
+          <t>t-737924468329328640</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-738432094909698048</t>
+          <t>t-737947084494622720</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,33 +6004,33 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-738465959694860289</t>
+          <t>t-738026122630332416</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-738495271307513856</t>
+          <t>t-738039322344075265</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-738626782371426304</t>
+          <t>t-738045153693335552</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,37 +6043,37 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-738645010103603200</t>
+          <t>t-738399731303514112</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-738707246943719426</t>
+          <t>t-738417134443859970</t>
         </is>
       </c>
       <c r="B433" t="n">
         <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-738992446231719937</t>
+          <t>t-738432094909698048</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -6082,46 +6082,46 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-739020531689721856</t>
+          <t>t-738465959694860289</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-739105047078948864</t>
+          <t>t-738495271307513856</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-739154724495228928</t>
+          <t>t-738626782371426304</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-739161314166214656</t>
+          <t>t-738645010103603200</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,37 +6134,37 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-739753236761055232</t>
+          <t>t-738707246943719426</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-739763139001094144</t>
+          <t>t-738992446231719937</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-739766081125011456</t>
+          <t>t-739020531689721856</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-739840205935546368</t>
+          <t>t-739105047078948864</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-739892598974861314</t>
+          <t>t-739154724495228928</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,11 +6199,11 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-740068412177715200</t>
+          <t>t-739161314166214656</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
         <v>1</v>
@@ -6212,46 +6212,46 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-740070843053662208</t>
+          <t>t-739753236761055232</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-740092206627880960</t>
+          <t>t-739763139001094144</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-740465124390080515</t>
+          <t>t-739766081125011456</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-740535202582253568</t>
+          <t>t-739840205935546368</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,11 +6264,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-740538191267106816</t>
+          <t>t-739892598974861314</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -6277,20 +6277,20 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-741179165198536704</t>
+          <t>t-740068412177715200</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-740070843053662208</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,33 +6303,33 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-740092206627880960</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-740465124390080515</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-740535202582253568</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-740538191267106816</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-741179165198536704</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,33 +6368,33 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,85 +6459,85 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,11 +6563,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
         <v>1</v>
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,33 +6589,33 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,11 +6654,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,20 +6706,20 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,20 +6732,20 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,11 +6758,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,24 +6784,24 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6810,33 +6810,33 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,20 +6849,20 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,7 +6875,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,20 +6940,20 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,11 +6966,11 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
         <v>1</v>
@@ -6979,24 +6979,24 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,20 +7018,20 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
         <v>0</v>
@@ -7057,33 +7057,33 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,11 +7122,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>1</v>
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,33 +7148,33 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,24 +7187,24 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -7213,37 +7213,37 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B522" t="n">
         <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
         <v>1</v>
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,20 +7291,20 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-650407824212660224</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-650415832523255809</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-650581180757073921</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,11 +7330,11 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-650584856162926592</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
         <v>0</v>
@@ -7343,63 +7343,63 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-650605489492000769</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
         <v>1</v>
@@ -7408,24 +7408,24 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-734423204488445952</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
         <v>1</v>
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,50 +7460,50 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
         <v>1</v>
@@ -7512,33 +7512,33 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,33 +7551,33 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,59 +7590,59 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,33 +7681,33 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,37 +7733,37 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
         <v>1</v>
@@ -7772,72 +7772,72 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-940225923332403204</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-940273268677849088</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,37 +7850,37 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,20 +7889,20 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,11 +7928,11 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,20 +7941,20 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,33 +7967,33 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,11 +8058,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,24 +8084,24 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
         <v>1</v>
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,33 +8123,33 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,20 +8162,20 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,33 +8266,33 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,63 +8305,63 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,20 +8383,20 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,11 +8461,11 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,20 +8487,20 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,11 +8526,11 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
         <v>0</v>
@@ -8539,33 +8539,33 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B624" t="n">
         <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,33 +8578,33 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B627" t="n">
         <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,11 +8617,11 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,11 +8656,11 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,11 +8708,11 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
         <v>1</v>
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,33 +8734,33 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B640" t="n">
         <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,20 +8812,20 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-838333127739260928</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-838721199874048000</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,24 +8838,24 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,59 +8890,59 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B651" t="n">
         <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B652" t="n">
         <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-678547534269177856</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,24 +9020,24 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>0</v>
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-666809196977909760</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,20 +9085,20 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B666" t="n">
         <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,20 +9137,20 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-833843048253681665</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-834648744150892546</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,37 +9215,37 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B677" t="n">
         <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,20 +9267,20 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,11 +9293,11 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,24 +9306,24 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,20 +9332,20 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-577656940282540032</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-536910791295778816</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,24 +9423,24 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B692" t="n">
         <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,20 +9475,20 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,11 +9514,11 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,20 +9527,20 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B700" t="n">
         <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,37 +9579,37 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,24 +9618,24 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,20 +9683,20 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,20 +9774,20 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,11 +9800,11 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,11 +9826,11 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-718718501679017984</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,11 +9878,11 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C727" t="n">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,11 +9930,11 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-928096679089209344</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C731" t="n">
         <v>1</v>
@@ -9943,39 +9943,13 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-940573035752386560</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-785325402981924866</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>t-785347096031268864</t>
-        </is>
-      </c>
-      <c r="B734" t="n">
-        <v>1</v>
-      </c>
-      <c r="C734" t="n">
         <v>1</v>
       </c>
     </row>
